--- a/Zeitblätter/Tobias Breuß.xlsx
+++ b/Zeitblätter/Tobias Breuß.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblätter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblätter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Teammeeting + Funkmodul</t>
+  </si>
+  <si>
+    <t>Sensorboard auf neuem Modul</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,6 +690,12 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
+      <c r="B27">
+        <v>4.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -739,7 +748,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>30.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
